--- a/results/mp/logistic/home-spam/confidence/42/stop-words-topk-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/42/stop-words-topk-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,10 +40,13 @@
     <t>name</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>return</t>
   </si>
   <si>
-    <t>returned</t>
+    <t>poor</t>
   </si>
   <si>
     <t>stopped</t>
@@ -52,96 +55,102 @@
     <t>waste</t>
   </si>
   <si>
-    <t>poor</t>
+    <t>useless</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>filters</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>filters</t>
-  </si>
-  <si>
-    <t>useless</t>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>difficult</t>
   </si>
   <si>
     <t>maybe</t>
   </si>
   <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>months</t>
   </si>
   <si>
+    <t>grind</t>
+  </si>
+  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>grind</t>
-  </si>
-  <si>
-    <t>filter</t>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>lid</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>lid</t>
-  </si>
-  <si>
-    <t>plastic</t>
+    <t>back</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>received</t>
   </si>
   <si>
+    <t>worked</t>
+  </si>
+  <si>
     <t>piece</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>back</t>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>fit</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
+    <t>hold</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
+    <t>two</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
@@ -160,30 +169,27 @@
     <t>use</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>loves</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>loves</t>
+    <t>love</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
@@ -200,9 +206,6 @@
   </si>
   <si>
     <t>easy</t>
-  </si>
-  <si>
-    <t>nice</t>
   </si>
   <si>
     <t>works</t>
@@ -572,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -580,10 +583,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -641,13 +644,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9380530973451328</v>
+        <v>0.9494949494949495</v>
       </c>
       <c r="C3">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D3">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -659,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K3">
-        <v>0.8125</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="L3">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="M3">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -683,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -691,13 +694,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9090909090909091</v>
+        <v>0.9292035398230089</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D4">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -709,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K4">
-        <v>0.7826086956521739</v>
+        <v>0.7578125</v>
       </c>
       <c r="L4">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="M4">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -733,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -741,7 +744,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8679245283018868</v>
+        <v>0.92</v>
       </c>
       <c r="C5">
         <v>46</v>
@@ -759,19 +762,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K5">
-        <v>0.7593220338983051</v>
+        <v>0.7254237288135593</v>
       </c>
       <c r="L5">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="M5">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -783,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -791,13 +794,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.864406779661017</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="C6">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="D6">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -809,19 +812,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K6">
-        <v>0.7096774193548387</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="L6">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -833,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -841,13 +844,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.82</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="C7">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="D7">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -859,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K7">
-        <v>0.6753246753246753</v>
+        <v>0.653250773993808</v>
       </c>
       <c r="L7">
-        <v>52</v>
+        <v>422</v>
       </c>
       <c r="M7">
-        <v>52</v>
+        <v>422</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -883,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>25</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -891,13 +894,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7945945945945946</v>
+        <v>0.825</v>
       </c>
       <c r="C8">
-        <v>147</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>147</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -909,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K8">
-        <v>0.6702786377708978</v>
+        <v>0.6493506493506493</v>
       </c>
       <c r="L8">
-        <v>433</v>
+        <v>50</v>
       </c>
       <c r="M8">
-        <v>433</v>
+        <v>50</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -933,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>213</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -962,16 +965,16 @@
         <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K9">
-        <v>0.5757575757575758</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L9">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M9">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -983,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -991,13 +994,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7272727272727273</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="C10">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1009,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K10">
-        <v>0.4078947368421053</v>
+        <v>0.5</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1033,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1041,13 +1044,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.725</v>
+        <v>0.7675675675675676</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1059,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K11">
-        <v>0.3873873873873874</v>
+        <v>0.3603603603603603</v>
       </c>
       <c r="L11">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M11">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1083,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1091,13 +1094,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7169811320754716</v>
+        <v>0.7123287671232876</v>
       </c>
       <c r="C12">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D12">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1109,19 +1112,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12">
+        <v>0.3390804597701149</v>
+      </c>
+      <c r="L12">
         <v>59</v>
       </c>
-      <c r="K12">
-        <v>0.3620689655172414</v>
-      </c>
-      <c r="L12">
-        <v>63</v>
-      </c>
       <c r="M12">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N12">
         <v>0.98</v>
@@ -1133,7 +1136,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1141,13 +1144,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7123287671232876</v>
+        <v>0.6911764705882353</v>
       </c>
       <c r="C13">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D13">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1162,16 +1165,16 @@
         <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K13">
-        <v>0.3110932475884244</v>
+        <v>0.3065164923572003</v>
       </c>
       <c r="L13">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M13">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="N13">
         <v>0.99</v>
@@ -1183,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>857</v>
+        <v>862</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1191,13 +1194,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6764705882352942</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="C14">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D14">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1209,31 +1212,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K14">
-        <v>0.1565934065934066</v>
+        <v>0.1643835616438356</v>
       </c>
       <c r="L14">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="M14">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="N14">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1241,13 +1244,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6201550387596899</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="C15">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D15">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1259,31 +1262,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K15">
-        <v>0.08353808353808354</v>
+        <v>0.04806408544726302</v>
       </c>
       <c r="L15">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M15">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="N15">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="O15">
-        <v>0.03000000000000003</v>
+        <v>0.14</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>373</v>
+        <v>713</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1291,13 +1294,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6037735849056604</v>
+        <v>0.632183908045977</v>
       </c>
       <c r="C16">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D16">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1309,31 +1312,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K16">
-        <v>0.04793608521970705</v>
+        <v>0.03727506426735219</v>
       </c>
       <c r="L16">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="M16">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="N16">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="O16">
-        <v>0.09999999999999998</v>
+        <v>0.12</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>715</v>
+        <v>749</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1341,13 +1344,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C17">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="D17">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1359,31 +1362,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K17">
-        <v>0.03722721437740693</v>
+        <v>0.03243243243243243</v>
       </c>
       <c r="L17">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N17">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="O17">
-        <v>0.08999999999999997</v>
+        <v>0.12</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>750</v>
+        <v>895</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1391,13 +1394,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5777777777777777</v>
+        <v>0.6025641025641025</v>
       </c>
       <c r="C18">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="D18">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1409,31 +1412,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>57</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K18">
-        <v>0.03135135135135135</v>
-      </c>
-      <c r="L18">
-        <v>29</v>
-      </c>
-      <c r="M18">
-        <v>33</v>
-      </c>
-      <c r="N18">
-        <v>0.88</v>
-      </c>
-      <c r="O18">
-        <v>0.12</v>
-      </c>
-      <c r="P18" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q18">
-        <v>896</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1441,25 +1420,25 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5641025641025641</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="C19">
+        <v>62</v>
+      </c>
+      <c r="D19">
+        <v>62</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>44</v>
-      </c>
-      <c r="D19">
-        <v>44</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1493,13 +1472,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5632183908045977</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="C21">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="D21">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1511,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>38</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1519,25 +1498,25 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5444444444444444</v>
+        <v>0.5374149659863946</v>
       </c>
       <c r="C22">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D22">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1545,13 +1524,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5398230088495575</v>
+        <v>0.504424778761062</v>
       </c>
       <c r="C23">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D23">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1563,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1571,13 +1550,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5135135135135135</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="C24">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="D24">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1589,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1600,10 +1579,10 @@
         <v>0.4423076923076923</v>
       </c>
       <c r="C25">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D25">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1615,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>58</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1623,13 +1602,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.404040404040404</v>
+        <v>0.4271844660194175</v>
       </c>
       <c r="C26">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D26">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1649,13 +1628,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3980582524271845</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C27">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1667,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1675,13 +1654,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3798882681564246</v>
+        <v>0.329608938547486</v>
       </c>
       <c r="C28">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D28">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1693,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1701,13 +1680,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.358974358974359</v>
+        <v>0.3232323232323233</v>
       </c>
       <c r="C29">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="D29">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1719,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1727,13 +1706,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2722371967654987</v>
+        <v>0.3</v>
       </c>
       <c r="C30">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="D30">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1745,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>270</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1753,13 +1732,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2619047619047619</v>
+        <v>0.29</v>
       </c>
       <c r="C31">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D31">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1771,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1779,13 +1758,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.25</v>
+        <v>0.2566371681415929</v>
       </c>
       <c r="C32">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D32">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1797,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>150</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1805,13 +1784,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2450331125827815</v>
+        <v>0.2516556291390729</v>
       </c>
       <c r="C33">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D33">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1823,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1831,13 +1810,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2142857142857143</v>
+        <v>0.245</v>
       </c>
       <c r="C34">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D34">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1849,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1857,13 +1836,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2006802721088435</v>
+        <v>0.2345013477088949</v>
       </c>
       <c r="C35">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="D35">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1875,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>235</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1883,13 +1862,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1720430107526882</v>
+        <v>0.2074829931972789</v>
       </c>
       <c r="C36">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="D36">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1901,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>154</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1909,13 +1888,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1353711790393013</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="C37">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D37">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1927,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>198</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1935,25 +1914,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1267029972752044</v>
+        <v>0.1837837837837838</v>
       </c>
       <c r="C38">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="D38">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="E38">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="F38">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>641</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1961,13 +1940,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1204013377926421</v>
+        <v>0.1703296703296703</v>
       </c>
       <c r="C39">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D39">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1979,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>263</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1987,25 +1966,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1109660574412533</v>
+        <v>0.1310043668122271</v>
       </c>
       <c r="C40">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="D40">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E40">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>681</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2013,25 +1992,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1024390243902439</v>
+        <v>0.121418826739427</v>
       </c>
       <c r="C41">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D41">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>368</v>
+        <v>644</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2039,25 +2018,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.04608695652173913</v>
+        <v>0.1036789297658863</v>
       </c>
       <c r="C42">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D42">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="E42">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>1097</v>
+        <v>268</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2065,25 +2044,77 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.02913533834586466</v>
+        <v>0.1029986962190352</v>
       </c>
       <c r="C43">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="D43">
+        <v>79</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.09535452322738386</v>
+      </c>
+      <c r="C44">
         <v>39</v>
       </c>
-      <c r="E43">
-        <v>0.21</v>
-      </c>
-      <c r="F43">
-        <v>0.79</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>1033</v>
+      <c r="D44">
+        <v>40</v>
+      </c>
+      <c r="E44">
+        <v>0.03</v>
+      </c>
+      <c r="F44">
+        <v>0.97</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.04969485614646905</v>
+      </c>
+      <c r="C45">
+        <v>57</v>
+      </c>
+      <c r="D45">
+        <v>67</v>
+      </c>
+      <c r="E45">
+        <v>0.15</v>
+      </c>
+      <c r="F45">
+        <v>0.85</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1090</v>
       </c>
     </row>
   </sheetData>
